--- a/9-resampling-time-series/resampling-time-series-start.xlsx
+++ b/9-resampling-time-series/resampling-time-series-start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maqimzmnjbt5wavnbicv98tlhog-my.sharepoint.com/personal/george_stringfestanalytics_com/Documents/Stringfest assets/OReilly/oreilly-shortcuts/python-in-excel/9-resampling-time-series/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\oreilly-shortcuts-python-in-excel\9-resampling-time-series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{1F400DA9-AE24-4CC8-A87B-1275C71802DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E3A5895-CC17-4175-855A-A70A4D9D6F40}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648CB736-6E45-4BC6-ACCB-75F0D062BF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" activeTab="1" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
   </bookViews>
   <sheets>
     <sheet name="sales" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="11">
+  <futureMetadata name="XLRICHVALUE" count="5">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -87,55 +87,13 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="5"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="6"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="7"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="8"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="9"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="10"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="11">
+  <valueMetadata count="5">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -150,24 +108,6 @@
     </bk>
     <bk>
       <rc t="2" v="4"/>
-    </bk>
-    <bk>
-      <rc t="2" v="5"/>
-    </bk>
-    <bk>
-      <rc t="2" v="6"/>
-    </bk>
-    <bk>
-      <rc t="2" v="7"/>
-    </bk>
-    <bk>
-      <rc t="2" v="8"/>
-    </bk>
-    <bk>
-      <rc t="2" v="9"/>
-    </bk>
-    <bk>
-      <rc t="2" v="10"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -194,17 +134,6 @@
     <pythonScript>
       <code>sales_df = xl(%P2%, headers=True)
 sales_df.head()</code>
-    </pythonScript>
-    <pythonScript>
-      <code>sales_ts = sales_df.set_index('order_date')
-sales_ts.head()</code>
-    </pythonScript>
-    <pythonScript>
-      <code>weekly_total_units = sales_ts.resample('W').sum()['quantity']
-weekly_total_units.head()</code>
-    </pythonScript>
-    <pythonScript>
-      <code>sns.lineplot(x='order_date', y='sales', data=sales_df)</code>
     </pythonScript>
   </pythonScripts>
 </python>
@@ -407,7 +336,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="11">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <rv s="0">
     <fb>44879</fb>
     <v>0</v>
@@ -428,47 +357,13 @@
     <fb>44619</fb>
     <v>0</v>
   </rv>
-  <rv s="0">
-    <fb>44563</fb>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <fb>44570</fb>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <fb>44577</fb>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <fb>44584</fb>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <fb>44591</fb>
-    <v>0</v>
-  </rv>
-  <rv s="1">
-    <v>0d77f7c2e3214b3a83ff39f0ef8cd57a</v>
-    <v>Could not interpret value `sales` for parameter `y`</v>
-    <v>ValueError</v>
-    <v>18</v>
-    <v>1</v>
-  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
   <s t="_formattednumber">
     <k n="_Format" t="spb"/>
-  </s>
-  <s t="_error">
-    <k n="correlationId" t="s"/>
-    <k n="errorMessage" t="s"/>
-    <k n="errorName" t="s"/>
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
   </s>
 </rvStructures>
 </file>
@@ -843,26 +738,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90CDA04-8C43-4254-BCF8-5896515456A3}">
   <dimension ref="A1:W501"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.7" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="1" max="1" width="8.4140625" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="10.45703125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.9140625" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
-    <col min="10" max="10" width="15.95703125" customWidth="1"/>
-    <col min="11" max="11" width="7.95703125" customWidth="1"/>
+    <col min="1" max="1" width="8.40625" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.48046875" customWidth="1"/>
+    <col min="5" max="5" width="10.14453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.92578125" customWidth="1"/>
+    <col min="7" max="7" width="8.48046875" customWidth="1"/>
+    <col min="8" max="8" width="10.48046875" customWidth="1"/>
+    <col min="9" max="9" width="13.14453125" customWidth="1"/>
+    <col min="10" max="10" width="15.9609375" customWidth="1"/>
+    <col min="11" max="11" width="7.9609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -897,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A2">
         <v>1</v>
       </c>
@@ -966,7 +859,7 @@
         <v>country</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1034,7 +927,7 @@
         <v>Germany</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1102,7 +995,7 @@
         <v>Canada</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1170,7 +1063,7 @@
         <v>UK</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1238,7 +1131,7 @@
         <v>Germany</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1306,7 +1199,7 @@
         <v>Australia</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1341,7 +1234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1376,7 +1269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1411,7 +1304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1446,7 +1339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1481,7 +1374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1516,7 +1409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1551,7 +1444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1586,7 +1479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1621,7 +1514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1656,7 +1549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1691,7 +1584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1726,7 +1619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1761,7 +1654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1796,7 +1689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1831,7 +1724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1866,7 +1759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1901,7 +1794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1936,7 +1829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1971,7 +1864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2006,7 +1899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2041,7 +1934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2076,7 +1969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2111,7 +2004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2146,7 +2039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2181,7 +2074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2216,7 +2109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2251,7 +2144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2286,7 +2179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2321,7 +2214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2356,7 +2249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2391,7 +2284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2426,7 +2319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2461,7 +2354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2496,7 +2389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2531,7 +2424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2566,7 +2459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2601,7 +2494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2636,7 +2529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2671,7 +2564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2706,7 +2599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2741,7 +2634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2776,7 +2669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2811,7 +2704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2846,7 +2739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2881,7 +2774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2916,7 +2809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2951,7 +2844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2986,7 +2879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3021,7 +2914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3056,7 +2949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3091,7 +2984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3126,7 +3019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3161,7 +3054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3196,7 +3089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3231,7 +3124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3266,7 +3159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3301,7 +3194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3336,7 +3229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3371,7 +3264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3406,7 +3299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3441,7 +3334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3476,7 +3369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3511,7 +3404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3546,7 +3439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3581,7 +3474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3616,7 +3509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3651,7 +3544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3686,7 +3579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3721,7 +3614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3756,7 +3649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3791,7 +3684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3826,7 +3719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3861,7 +3754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3896,7 +3789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3931,7 +3824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3966,7 +3859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4001,7 +3894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4036,7 +3929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4071,7 +3964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4106,7 +3999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4141,7 +4034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4176,7 +4069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4211,7 +4104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4246,7 +4139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4281,7 +4174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4316,7 +4209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4351,7 +4244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4386,7 +4279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4421,7 +4314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4456,7 +4349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4491,7 +4384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4526,7 +4419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4561,7 +4454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4596,7 +4489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4631,7 +4524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4666,7 +4559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4701,7 +4594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4736,7 +4629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4771,7 +4664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4806,7 +4699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4841,7 +4734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4876,7 +4769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4911,7 +4804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4946,7 +4839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4981,7 +4874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5016,7 +4909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5051,7 +4944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5086,7 +4979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5121,7 +5014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5156,7 +5049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5191,7 +5084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5226,7 +5119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5261,7 +5154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5296,7 +5189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5331,7 +5224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5366,7 +5259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5401,7 +5294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5436,7 +5329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5471,7 +5364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5506,7 +5399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5541,7 +5434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5576,7 +5469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5611,7 +5504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5646,7 +5539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5681,7 +5574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5716,7 +5609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5751,7 +5644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5786,7 +5679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5821,7 +5714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5856,7 +5749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5891,7 +5784,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5926,7 +5819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5961,7 +5854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5996,7 +5889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6031,7 +5924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6066,7 +5959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6101,7 +5994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6136,7 +6029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6171,7 +6064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6206,7 +6099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6241,7 +6134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6276,7 +6169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6311,7 +6204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6346,7 +6239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6381,7 +6274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6416,7 +6309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6451,7 +6344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6486,7 +6379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6521,7 +6414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6556,7 +6449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6591,7 +6484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6626,7 +6519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6661,7 +6554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6696,7 +6589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6731,7 +6624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6766,7 +6659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6801,7 +6694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6836,7 +6729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6871,7 +6764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6906,7 +6799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6941,7 +6834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6976,7 +6869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7011,7 +6904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7046,7 +6939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7081,7 +6974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7116,7 +7009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7151,7 +7044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7186,7 +7079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7221,7 +7114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7256,7 +7149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7291,7 +7184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7326,7 +7219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7361,7 +7254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7396,7 +7289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7431,7 +7324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7466,7 +7359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7501,7 +7394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7536,7 +7429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7571,7 +7464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7606,7 +7499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7641,7 +7534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7676,7 +7569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A190">
         <v>189</v>
       </c>
@@ -7711,7 +7604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A191">
         <v>190</v>
       </c>
@@ -7746,7 +7639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A192">
         <v>191</v>
       </c>
@@ -7781,7 +7674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A193">
         <v>192</v>
       </c>
@@ -7816,7 +7709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A194">
         <v>193</v>
       </c>
@@ -7851,7 +7744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A195">
         <v>194</v>
       </c>
@@ -7886,7 +7779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A196">
         <v>195</v>
       </c>
@@ -7921,7 +7814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A197">
         <v>196</v>
       </c>
@@ -7956,7 +7849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A198">
         <v>197</v>
       </c>
@@ -7991,7 +7884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8026,7 +7919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8061,7 +7954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8096,7 +7989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8131,7 +8024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8166,7 +8059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8201,7 +8094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8236,7 +8129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8271,7 +8164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8306,7 +8199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8341,7 +8234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8376,7 +8269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8411,7 +8304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8446,7 +8339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8481,7 +8374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8516,7 +8409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8551,7 +8444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8586,7 +8479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8621,7 +8514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8656,7 +8549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A218">
         <v>217</v>
       </c>
@@ -8691,7 +8584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8726,7 +8619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A220">
         <v>219</v>
       </c>
@@ -8761,7 +8654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A221">
         <v>220</v>
       </c>
@@ -8796,7 +8689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A222">
         <v>221</v>
       </c>
@@ -8831,7 +8724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A223">
         <v>222</v>
       </c>
@@ -8866,7 +8759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A224">
         <v>223</v>
       </c>
@@ -8901,7 +8794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A225">
         <v>224</v>
       </c>
@@ -8936,7 +8829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A226">
         <v>225</v>
       </c>
@@ -8971,7 +8864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9006,7 +8899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9041,7 +8934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9076,7 +8969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9111,7 +9004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9146,7 +9039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9181,7 +9074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9216,7 +9109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9251,7 +9144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A235">
         <v>234</v>
       </c>
@@ -9286,7 +9179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A236">
         <v>235</v>
       </c>
@@ -9321,7 +9214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A237">
         <v>236</v>
       </c>
@@ -9356,7 +9249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A238">
         <v>237</v>
       </c>
@@ -9391,7 +9284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A239">
         <v>238</v>
       </c>
@@ -9426,7 +9319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A240">
         <v>239</v>
       </c>
@@ -9461,7 +9354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A241">
         <v>240</v>
       </c>
@@ -9496,7 +9389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A242">
         <v>241</v>
       </c>
@@ -9531,7 +9424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A243">
         <v>242</v>
       </c>
@@ -9566,7 +9459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A244">
         <v>243</v>
       </c>
@@ -9601,7 +9494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A245">
         <v>244</v>
       </c>
@@ -9636,7 +9529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A246">
         <v>245</v>
       </c>
@@ -9671,7 +9564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A247">
         <v>246</v>
       </c>
@@ -9706,7 +9599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A248">
         <v>247</v>
       </c>
@@ -9741,7 +9634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A249">
         <v>248</v>
       </c>
@@ -9776,7 +9669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A250">
         <v>249</v>
       </c>
@@ -9811,7 +9704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9846,7 +9739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A252">
         <v>251</v>
       </c>
@@ -9881,7 +9774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A253">
         <v>252</v>
       </c>
@@ -9916,7 +9809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A254">
         <v>253</v>
       </c>
@@ -9951,7 +9844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A255">
         <v>254</v>
       </c>
@@ -9986,7 +9879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A256">
         <v>255</v>
       </c>
@@ -10021,7 +9914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A257">
         <v>256</v>
       </c>
@@ -10056,7 +9949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A258">
         <v>257</v>
       </c>
@@ -10091,7 +9984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A259">
         <v>258</v>
       </c>
@@ -10126,7 +10019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A260">
         <v>259</v>
       </c>
@@ -10161,7 +10054,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A261">
         <v>260</v>
       </c>
@@ -10196,7 +10089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A262">
         <v>261</v>
       </c>
@@ -10231,7 +10124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A263">
         <v>262</v>
       </c>
@@ -10266,7 +10159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A264">
         <v>263</v>
       </c>
@@ -10301,7 +10194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A265">
         <v>264</v>
       </c>
@@ -10336,7 +10229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A266">
         <v>265</v>
       </c>
@@ -10371,7 +10264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A267">
         <v>266</v>
       </c>
@@ -10406,7 +10299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A268">
         <v>267</v>
       </c>
@@ -10441,7 +10334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A269">
         <v>268</v>
       </c>
@@ -10476,7 +10369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A270">
         <v>269</v>
       </c>
@@ -10511,7 +10404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A271">
         <v>270</v>
       </c>
@@ -10546,7 +10439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A272">
         <v>271</v>
       </c>
@@ -10581,7 +10474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A273">
         <v>272</v>
       </c>
@@ -10616,7 +10509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A274">
         <v>273</v>
       </c>
@@ -10651,7 +10544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A275">
         <v>274</v>
       </c>
@@ -10686,7 +10579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A276">
         <v>275</v>
       </c>
@@ -10721,7 +10614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A277">
         <v>276</v>
       </c>
@@ -10756,7 +10649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A278">
         <v>277</v>
       </c>
@@ -10791,7 +10684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A279">
         <v>278</v>
       </c>
@@ -10826,7 +10719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A280">
         <v>279</v>
       </c>
@@ -10861,7 +10754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A281">
         <v>280</v>
       </c>
@@ -10896,7 +10789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A282">
         <v>281</v>
       </c>
@@ -10931,7 +10824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A283">
         <v>282</v>
       </c>
@@ -10966,7 +10859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A284">
         <v>283</v>
       </c>
@@ -11001,7 +10894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A285">
         <v>284</v>
       </c>
@@ -11036,7 +10929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A286">
         <v>285</v>
       </c>
@@ -11071,7 +10964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A287">
         <v>286</v>
       </c>
@@ -11106,7 +10999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A288">
         <v>287</v>
       </c>
@@ -11141,7 +11034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A289">
         <v>288</v>
       </c>
@@ -11176,7 +11069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A290">
         <v>289</v>
       </c>
@@ -11211,7 +11104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A291">
         <v>290</v>
       </c>
@@ -11246,7 +11139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A292">
         <v>291</v>
       </c>
@@ -11281,7 +11174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A293">
         <v>292</v>
       </c>
@@ -11316,7 +11209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A294">
         <v>293</v>
       </c>
@@ -11351,7 +11244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A295">
         <v>294</v>
       </c>
@@ -11386,7 +11279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A296">
         <v>295</v>
       </c>
@@ -11421,7 +11314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A297">
         <v>296</v>
       </c>
@@ -11456,7 +11349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A298">
         <v>297</v>
       </c>
@@ -11491,7 +11384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A299">
         <v>298</v>
       </c>
@@ -11526,7 +11419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A300">
         <v>299</v>
       </c>
@@ -11561,7 +11454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A301">
         <v>300</v>
       </c>
@@ -11596,7 +11489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A302">
         <v>301</v>
       </c>
@@ -11631,7 +11524,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A303">
         <v>302</v>
       </c>
@@ -11666,7 +11559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A304">
         <v>303</v>
       </c>
@@ -11701,7 +11594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A305">
         <v>304</v>
       </c>
@@ -11736,7 +11629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A306">
         <v>305</v>
       </c>
@@ -11771,7 +11664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A307">
         <v>306</v>
       </c>
@@ -11806,7 +11699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A308">
         <v>307</v>
       </c>
@@ -11841,7 +11734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A309">
         <v>308</v>
       </c>
@@ -11876,7 +11769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A310">
         <v>309</v>
       </c>
@@ -11911,7 +11804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A311">
         <v>310</v>
       </c>
@@ -11946,7 +11839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A312">
         <v>311</v>
       </c>
@@ -11981,7 +11874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A313">
         <v>312</v>
       </c>
@@ -12016,7 +11909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A314">
         <v>313</v>
       </c>
@@ -12051,7 +11944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A315">
         <v>314</v>
       </c>
@@ -12086,7 +11979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A316">
         <v>315</v>
       </c>
@@ -12121,7 +12014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A317">
         <v>316</v>
       </c>
@@ -12156,7 +12049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A318">
         <v>317</v>
       </c>
@@ -12191,7 +12084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A319">
         <v>318</v>
       </c>
@@ -12226,7 +12119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A320">
         <v>319</v>
       </c>
@@ -12261,7 +12154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A321">
         <v>320</v>
       </c>
@@ -12296,7 +12189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A322">
         <v>321</v>
       </c>
@@ -12331,7 +12224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A323">
         <v>322</v>
       </c>
@@ -12366,7 +12259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A324">
         <v>323</v>
       </c>
@@ -12401,7 +12294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A325">
         <v>324</v>
       </c>
@@ -12436,7 +12329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A326">
         <v>325</v>
       </c>
@@ -12471,7 +12364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A327">
         <v>326</v>
       </c>
@@ -12506,7 +12399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A328">
         <v>327</v>
       </c>
@@ -12541,7 +12434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A329">
         <v>328</v>
       </c>
@@ -12576,7 +12469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A330">
         <v>329</v>
       </c>
@@ -12611,7 +12504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A331">
         <v>330</v>
       </c>
@@ -12646,7 +12539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A332">
         <v>331</v>
       </c>
@@ -12681,7 +12574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A333">
         <v>332</v>
       </c>
@@ -12716,7 +12609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A334">
         <v>333</v>
       </c>
@@ -12751,7 +12644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A335">
         <v>334</v>
       </c>
@@ -12786,7 +12679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A336">
         <v>335</v>
       </c>
@@ -12821,7 +12714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A337">
         <v>336</v>
       </c>
@@ -12856,7 +12749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A338">
         <v>337</v>
       </c>
@@ -12891,7 +12784,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A339">
         <v>338</v>
       </c>
@@ -12926,7 +12819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A340">
         <v>339</v>
       </c>
@@ -12961,7 +12854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A341">
         <v>340</v>
       </c>
@@ -12996,7 +12889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A342">
         <v>341</v>
       </c>
@@ -13031,7 +12924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A343">
         <v>342</v>
       </c>
@@ -13066,7 +12959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A344">
         <v>343</v>
       </c>
@@ -13101,7 +12994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A345">
         <v>344</v>
       </c>
@@ -13136,7 +13029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A346">
         <v>345</v>
       </c>
@@ -13171,7 +13064,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A347">
         <v>346</v>
       </c>
@@ -13206,7 +13099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A348">
         <v>347</v>
       </c>
@@ -13241,7 +13134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A349">
         <v>348</v>
       </c>
@@ -13276,7 +13169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A350">
         <v>349</v>
       </c>
@@ -13311,7 +13204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A351">
         <v>350</v>
       </c>
@@ -13346,7 +13239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A352">
         <v>351</v>
       </c>
@@ -13381,7 +13274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A353">
         <v>352</v>
       </c>
@@ -13416,7 +13309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A354">
         <v>353</v>
       </c>
@@ -13451,7 +13344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A355">
         <v>354</v>
       </c>
@@ -13486,7 +13379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A356">
         <v>355</v>
       </c>
@@ -13521,7 +13414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A357">
         <v>356</v>
       </c>
@@ -13556,7 +13449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A358">
         <v>357</v>
       </c>
@@ -13591,7 +13484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A359">
         <v>358</v>
       </c>
@@ -13626,7 +13519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A360">
         <v>359</v>
       </c>
@@ -13661,7 +13554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A361">
         <v>360</v>
       </c>
@@ -13696,7 +13589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A362">
         <v>361</v>
       </c>
@@ -13731,7 +13624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A363">
         <v>362</v>
       </c>
@@ -13766,7 +13659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A364">
         <v>363</v>
       </c>
@@ -13801,7 +13694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A365">
         <v>364</v>
       </c>
@@ -13836,7 +13729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A366">
         <v>365</v>
       </c>
@@ -13871,7 +13764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A367">
         <v>366</v>
       </c>
@@ -13906,7 +13799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A368">
         <v>367</v>
       </c>
@@ -13941,7 +13834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A369">
         <v>368</v>
       </c>
@@ -13976,7 +13869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A370">
         <v>369</v>
       </c>
@@ -14011,7 +13904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A371">
         <v>370</v>
       </c>
@@ -14046,7 +13939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A372">
         <v>371</v>
       </c>
@@ -14081,7 +13974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A373">
         <v>372</v>
       </c>
@@ -14116,7 +14009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A374">
         <v>373</v>
       </c>
@@ -14151,7 +14044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A375">
         <v>374</v>
       </c>
@@ -14186,7 +14079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A376">
         <v>375</v>
       </c>
@@ -14221,7 +14114,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A377">
         <v>376</v>
       </c>
@@ -14256,7 +14149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A378">
         <v>377</v>
       </c>
@@ -14291,7 +14184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A379">
         <v>378</v>
       </c>
@@ -14326,7 +14219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A380">
         <v>379</v>
       </c>
@@ -14361,7 +14254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A381">
         <v>380</v>
       </c>
@@ -14396,7 +14289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A382">
         <v>381</v>
       </c>
@@ -14431,7 +14324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A383">
         <v>382</v>
       </c>
@@ -14466,7 +14359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A384">
         <v>383</v>
       </c>
@@ -14501,7 +14394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A385">
         <v>384</v>
       </c>
@@ -14536,7 +14429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A386">
         <v>385</v>
       </c>
@@ -14571,7 +14464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A387">
         <v>386</v>
       </c>
@@ -14606,7 +14499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A388">
         <v>387</v>
       </c>
@@ -14641,7 +14534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A389">
         <v>388</v>
       </c>
@@ -14676,7 +14569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A390">
         <v>389</v>
       </c>
@@ -14711,7 +14604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A391">
         <v>390</v>
       </c>
@@ -14746,7 +14639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A392">
         <v>391</v>
       </c>
@@ -14781,7 +14674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A393">
         <v>392</v>
       </c>
@@ -14816,7 +14709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A394">
         <v>393</v>
       </c>
@@ -14851,7 +14744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A395">
         <v>394</v>
       </c>
@@ -14886,7 +14779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A396">
         <v>395</v>
       </c>
@@ -14921,7 +14814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A397">
         <v>396</v>
       </c>
@@ -14956,7 +14849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A398">
         <v>397</v>
       </c>
@@ -14991,7 +14884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A399">
         <v>398</v>
       </c>
@@ -15026,7 +14919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A400">
         <v>399</v>
       </c>
@@ -15061,7 +14954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A401">
         <v>400</v>
       </c>
@@ -15096,7 +14989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A402">
         <v>401</v>
       </c>
@@ -15131,7 +15024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A403">
         <v>402</v>
       </c>
@@ -15166,7 +15059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A404">
         <v>403</v>
       </c>
@@ -15201,7 +15094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A405">
         <v>404</v>
       </c>
@@ -15236,7 +15129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A406">
         <v>405</v>
       </c>
@@ -15271,7 +15164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A407">
         <v>406</v>
       </c>
@@ -15306,7 +15199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A408">
         <v>407</v>
       </c>
@@ -15341,7 +15234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A409">
         <v>408</v>
       </c>
@@ -15376,7 +15269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A410">
         <v>409</v>
       </c>
@@ -15411,7 +15304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A411">
         <v>410</v>
       </c>
@@ -15446,7 +15339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A412">
         <v>411</v>
       </c>
@@ -15481,7 +15374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A413">
         <v>412</v>
       </c>
@@ -15516,7 +15409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A414">
         <v>413</v>
       </c>
@@ -15551,7 +15444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A415">
         <v>414</v>
       </c>
@@ -15586,7 +15479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A416">
         <v>415</v>
       </c>
@@ -15621,7 +15514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A417">
         <v>416</v>
       </c>
@@ -15656,7 +15549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A418">
         <v>417</v>
       </c>
@@ -15691,7 +15584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A419">
         <v>418</v>
       </c>
@@ -15726,7 +15619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A420">
         <v>419</v>
       </c>
@@ -15761,7 +15654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A421">
         <v>420</v>
       </c>
@@ -15796,7 +15689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A422">
         <v>421</v>
       </c>
@@ -15831,7 +15724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A423">
         <v>422</v>
       </c>
@@ -15866,7 +15759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A424">
         <v>423</v>
       </c>
@@ -15901,7 +15794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A425">
         <v>424</v>
       </c>
@@ -15936,7 +15829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A426">
         <v>425</v>
       </c>
@@ -15971,7 +15864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A427">
         <v>426</v>
       </c>
@@ -16006,7 +15899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A428">
         <v>427</v>
       </c>
@@ -16041,7 +15934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A429">
         <v>428</v>
       </c>
@@ -16076,7 +15969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A430">
         <v>429</v>
       </c>
@@ -16111,7 +16004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A431">
         <v>430</v>
       </c>
@@ -16146,7 +16039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A432">
         <v>431</v>
       </c>
@@ -16181,7 +16074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A433">
         <v>432</v>
       </c>
@@ -16216,7 +16109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A434">
         <v>433</v>
       </c>
@@ -16251,7 +16144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A435">
         <v>434</v>
       </c>
@@ -16286,7 +16179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A436">
         <v>435</v>
       </c>
@@ -16321,7 +16214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A437">
         <v>436</v>
       </c>
@@ -16356,7 +16249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A438">
         <v>437</v>
       </c>
@@ -16391,7 +16284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A439">
         <v>438</v>
       </c>
@@ -16426,7 +16319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A440">
         <v>439</v>
       </c>
@@ -16461,7 +16354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A441">
         <v>440</v>
       </c>
@@ -16496,7 +16389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A442">
         <v>441</v>
       </c>
@@ -16531,7 +16424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A443">
         <v>442</v>
       </c>
@@ -16566,7 +16459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A444">
         <v>443</v>
       </c>
@@ -16601,7 +16494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A445">
         <v>444</v>
       </c>
@@ -16636,7 +16529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A446">
         <v>445</v>
       </c>
@@ -16671,7 +16564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A447">
         <v>446</v>
       </c>
@@ -16706,7 +16599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A448">
         <v>447</v>
       </c>
@@ -16741,7 +16634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A449">
         <v>448</v>
       </c>
@@ -16776,7 +16669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A450">
         <v>449</v>
       </c>
@@ -16811,7 +16704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A451">
         <v>450</v>
       </c>
@@ -16846,7 +16739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A452">
         <v>451</v>
       </c>
@@ -16881,7 +16774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A453">
         <v>452</v>
       </c>
@@ -16916,7 +16809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A454">
         <v>453</v>
       </c>
@@ -16951,7 +16844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A455">
         <v>454</v>
       </c>
@@ -16986,7 +16879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A456">
         <v>455</v>
       </c>
@@ -17021,7 +16914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A457">
         <v>456</v>
       </c>
@@ -17056,7 +16949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A458">
         <v>457</v>
       </c>
@@ -17091,7 +16984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A459">
         <v>458</v>
       </c>
@@ -17126,7 +17019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A460">
         <v>459</v>
       </c>
@@ -17161,7 +17054,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A461">
         <v>460</v>
       </c>
@@ -17196,7 +17089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A462">
         <v>461</v>
       </c>
@@ -17231,7 +17124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A463">
         <v>462</v>
       </c>
@@ -17266,7 +17159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A464">
         <v>463</v>
       </c>
@@ -17301,7 +17194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A465">
         <v>464</v>
       </c>
@@ -17336,7 +17229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A466">
         <v>465</v>
       </c>
@@ -17371,7 +17264,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A467">
         <v>466</v>
       </c>
@@ -17406,7 +17299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A468">
         <v>467</v>
       </c>
@@ -17441,7 +17334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A469">
         <v>468</v>
       </c>
@@ -17476,7 +17369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A470">
         <v>469</v>
       </c>
@@ -17511,7 +17404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A471">
         <v>470</v>
       </c>
@@ -17546,7 +17439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A472">
         <v>471</v>
       </c>
@@ -17581,7 +17474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A473">
         <v>472</v>
       </c>
@@ -17616,7 +17509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A474">
         <v>473</v>
       </c>
@@ -17651,7 +17544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A475">
         <v>474</v>
       </c>
@@ -17686,7 +17579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A476">
         <v>475</v>
       </c>
@@ -17721,7 +17614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A477">
         <v>476</v>
       </c>
@@ -17756,7 +17649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A478">
         <v>477</v>
       </c>
@@ -17791,7 +17684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A479">
         <v>478</v>
       </c>
@@ -17826,7 +17719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A480">
         <v>479</v>
       </c>
@@ -17861,7 +17754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A481">
         <v>480</v>
       </c>
@@ -17896,7 +17789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A482">
         <v>481</v>
       </c>
@@ -17931,7 +17824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A483">
         <v>482</v>
       </c>
@@ -17966,7 +17859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A484">
         <v>483</v>
       </c>
@@ -18001,7 +17894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A485">
         <v>484</v>
       </c>
@@ -18036,7 +17929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A486">
         <v>485</v>
       </c>
@@ -18071,7 +17964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A487">
         <v>486</v>
       </c>
@@ -18106,7 +17999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A488">
         <v>487</v>
       </c>
@@ -18141,7 +18034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A489">
         <v>488</v>
       </c>
@@ -18176,7 +18069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A490">
         <v>489</v>
       </c>
@@ -18211,7 +18104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A491">
         <v>490</v>
       </c>
@@ -18246,7 +18139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A492">
         <v>491</v>
       </c>
@@ -18281,7 +18174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A493">
         <v>492</v>
       </c>
@@ -18316,7 +18209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A494">
         <v>493</v>
       </c>
@@ -18351,7 +18244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A495">
         <v>494</v>
       </c>
@@ -18386,7 +18279,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A496">
         <v>495</v>
       </c>
@@ -18421,7 +18314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A497">
         <v>496</v>
       </c>
@@ -18456,7 +18349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A498">
         <v>497</v>
       </c>
@@ -18491,7 +18384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A499">
         <v>498</v>
       </c>
@@ -18526,7 +18419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A500">
         <v>499</v>
       </c>
@@ -18561,7 +18454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A501">
         <v>500</v>
       </c>
@@ -18606,319 +18499,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369F192D-AC68-4B55-907F-BCA7731E3A66}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L1" sqref="A1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.7" x14ac:dyDescent="0.7"/>
-  <cols>
-    <col min="1" max="1" width="9.95703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A1" t="str" cm="1">
-        <f t="array" ref="A1:K7">_xlfn._xlws.PY(1,0)</f>
-        <v/>
-      </c>
-      <c r="B1" t="str">
-        <v>order_id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>customer_id</v>
-      </c>
-      <c r="D1" t="str">
-        <v>product_id</v>
-      </c>
-      <c r="E1" t="str">
-        <v>product_name</v>
-      </c>
-      <c r="F1" t="str">
-        <v>category</v>
-      </c>
-      <c r="G1" t="str">
-        <v>unit_price</v>
-      </c>
-      <c r="H1" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="I1" t="str">
-        <v>customer_age</v>
-      </c>
-      <c r="J1" t="str">
-        <v>customer_gender</v>
-      </c>
-      <c r="K1" t="str">
-        <v>country</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A2" t="str">
-        <v>order_date</v>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-      <c r="F2" t="str">
-        <v/>
-      </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <v/>
-      </c>
-      <c r="J2" t="str">
-        <v/>
-      </c>
-      <c r="K2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A3" vm="1">
-        <v>44879</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>150</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Tablet</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="G3">
-        <v>611</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>62</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Female</v>
-      </c>
-      <c r="K3" t="str">
-        <v>Germany</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A4" vm="2">
-        <v>44840</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>176</v>
-      </c>
-      <c r="D4">
-        <v>36</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Smartphone</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="G4">
-        <v>751</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>23</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Male</v>
-      </c>
-      <c r="K4" t="str">
-        <v>Canada</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A5" vm="3">
-        <v>44688</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>37</v>
-      </c>
-      <c r="D5">
-        <v>22</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Jacket</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="G5">
-        <v>821</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>54</v>
-      </c>
-      <c r="J5" t="str">
-        <v>Male</v>
-      </c>
-      <c r="K5" t="str">
-        <v>UK</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A6" vm="4">
-        <v>44690</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>143</v>
-      </c>
-      <c r="D6">
-        <v>42</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Shoes</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="G6">
-        <v>395</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>50</v>
-      </c>
-      <c r="J6" t="str">
-        <v>Male</v>
-      </c>
-      <c r="K6" t="str">
-        <v>Germany</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A7" vm="5">
-        <v>44619</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>163</v>
-      </c>
-      <c r="D7">
-        <v>26</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Jacket</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="G7">
-        <v>301</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>39</v>
-      </c>
-      <c r="J7" t="str">
-        <v>Male</v>
-      </c>
-      <c r="K7" t="str">
-        <v>Australia</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A10" t="str" cm="1">
-        <f t="array" ref="A10:B15">_xlfn._xlws.PY(2,0)</f>
-        <v>order_date</v>
-      </c>
-      <c r="B10" t="str">
-        <v>quantity</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A11" vm="6">
-        <v>44563</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A12" vm="7">
-        <v>44570</v>
-      </c>
-      <c r="B12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A13" vm="8">
-        <v>44577</v>
-      </c>
-      <c r="B13">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A14" vm="9">
-        <v>44584</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A15" vm="10">
-        <v>44591</v>
-      </c>
-      <c r="B15">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A17" t="e" cm="1" vm="11">
-        <f t="array" ref="A17">_xlfn._xlws.PY(3,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>